--- a/Web/Template/ImportNha_Template.xlsx
+++ b/Web/Template/ImportNha_Template.xlsx
@@ -1596,6 +1596,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1626,12 +1629,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1646,16 +1655,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1963,7 +1980,7 @@
   <dimension ref="A1:W1"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U9" sqref="U9"/>
+      <selection activeCell="S11" sqref="S11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1985,8 +2002,8 @@
     <col min="17" max="17" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="21.85546875" style="8" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="15" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="15.5703125" customWidth="1"/>
   </cols>
@@ -2049,10 +2066,10 @@
       <c r="S1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="T1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="U1" s="7" t="s">
         <v>19</v>
       </c>
       <c r="V1" s="4" t="s">

--- a/Web/Template/ImportNha_Template.xlsx
+++ b/Web/Template/ImportNha_Template.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="813"/>
@@ -1629,7 +1629,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1639,6 +1639,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1655,7 +1667,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -1665,14 +1677,20 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1733,7 +1751,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1768,7 +1786,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1979,8 +1997,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S11" sqref="S11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2002,80 +2020,80 @@
     <col min="17" max="17" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="21.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="21.85546875" style="6" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="15" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="4" t="s">
+      <c r="D1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="7" t="s">
         <v>518</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="P1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="Q1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="R1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="S1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="T1" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="7" t="s">
+      <c r="U1" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="V1" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="W1" s="8" t="s">
         <v>21</v>
       </c>
     </row>
